--- a/integer_programming/Modeling/Project 3 - MeatyCo/P3_MeatyCo_analysis.xlsx
+++ b/integer_programming/Modeling/Project 3 - MeatyCo/P3_MeatyCo_analysis.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/optimization/integer_programming/Modeling/Project 3 - MeatyCo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>P3 output</t>
   </si>
@@ -38,9 +38,6 @@
     <t>div\shift</t>
   </si>
   <si>
-    <t>Xij</t>
-  </si>
-  <si>
     <t>Sij</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>Div</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Employee Max</t>
   </si>
   <si>
@@ -63,16 +57,20 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>Emplyees Staffed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,8 +85,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +126,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -131,40 +162,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,415 +520,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1691966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1674817</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1691966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>120</v>
+      </c>
+      <c r="D7" s="10">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <f>SUMPRODUCT(C7:D11,K23:L27)</f>
+        <v>2499.6999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>132</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>180</v>
+      </c>
+      <c r="D9" s="10">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="10">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <f>1.6/2.7</f>
+        <v>0.59259259259259256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2200</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
         <v>120</v>
       </c>
-      <c r="D7" s="5">
+      <c r="H23" s="7">
         <v>100</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6.8103449999999999</v>
-      </c>
-      <c r="D8" s="5">
-        <v>81.810339999999997</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>3</v>
+      </c>
+      <c r="L23" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2100</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2300</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>150</v>
+      </c>
+      <c r="H24" s="7">
+        <v>120</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="L24" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1900</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2200</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3</v>
+      </c>
+      <c r="G25" s="7">
         <v>180</v>
       </c>
-      <c r="D9" s="5">
+      <c r="H25" s="7">
         <v>150</v>
       </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="L25" s="7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C26" s="7">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2100</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+      <c r="G26" s="7">
         <v>100</v>
       </c>
-      <c r="D10" s="5">
+      <c r="H26" s="7">
         <v>75</v>
       </c>
-      <c r="F10" s="2">
+      <c r="J26" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+      <c r="K26" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C27" s="7">
+        <v>2200</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
+      <c r="G27" s="7">
+        <v>300</v>
+      </c>
+      <c r="H27" s="7">
+        <v>250</v>
+      </c>
+      <c r="J27" s="1">
         <v>5</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2200</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="8">
-        <v>120</v>
-      </c>
-      <c r="H23" s="8">
-        <v>100</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8">
-        <v>3</v>
-      </c>
-      <c r="L23" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="8">
-        <v>2100</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2300</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24" s="8">
-        <v>150</v>
-      </c>
-      <c r="H24" s="8">
-        <v>120</v>
-      </c>
-      <c r="J24" s="2">
-        <v>2</v>
-      </c>
-      <c r="K24" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="L24" s="8">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1900</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2200</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3</v>
-      </c>
-      <c r="G25" s="8">
-        <v>180</v>
-      </c>
-      <c r="H25" s="8">
-        <v>150</v>
-      </c>
-      <c r="J25" s="2">
-        <v>3</v>
-      </c>
-      <c r="K25" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="L25" s="8">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2100</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4</v>
-      </c>
-      <c r="G26" s="8">
-        <v>100</v>
-      </c>
-      <c r="H26" s="8">
-        <v>75</v>
-      </c>
-      <c r="J26" s="2">
-        <v>4</v>
-      </c>
-      <c r="K26" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="L26" s="8">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8">
-        <v>2200</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2400</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="8">
-        <v>300</v>
-      </c>
-      <c r="H27" s="8">
-        <v>250</v>
-      </c>
-      <c r="J27" s="2">
-        <v>5</v>
-      </c>
-      <c r="K27" s="8">
-        <v>3</v>
-      </c>
-      <c r="L27" s="8">
+      <c r="K27" s="7">
+        <v>3</v>
+      </c>
+      <c r="L27" s="7">
         <v>3</v>
       </c>
     </row>
